--- a/Pilot Finale/Dokumentasi/hasil optimasi jawa outlet only.xlsx
+++ b/Pilot Finale/Dokumentasi/hasil optimasi jawa outlet only.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t xml:space="preserve">tanggal_kirim</t>
   </si>
@@ -104,15 +104,33 @@
     <t xml:space="preserve">Sukaraja</t>
   </si>
   <si>
+    <t xml:space="preserve">Fuso</t>
+  </si>
+  <si>
     <t xml:space="preserve">111172387</t>
   </si>
   <si>
+    <t xml:space="preserve">111172385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111172390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111172391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111172392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111172389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111172393</t>
+  </si>
+  <si>
     <t xml:space="preserve">111172388</t>
   </si>
   <si>
-    <t xml:space="preserve">111172385</t>
-  </si>
-  <si>
     <t xml:space="preserve">111172681</t>
   </si>
   <si>
@@ -125,21 +143,6 @@
     <t xml:space="preserve">872003268</t>
   </si>
   <si>
-    <t xml:space="preserve">111172390</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111172391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111172392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111172389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111172393</t>
-  </si>
-  <si>
     <t xml:space="preserve">113028492</t>
   </si>
   <si>
@@ -167,13 +170,13 @@
     <t xml:space="preserve">111172765</t>
   </si>
   <si>
+    <t xml:space="preserve">113028515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113028514</t>
+  </si>
+  <si>
     <t xml:space="preserve">111172778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113028515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113028514</t>
   </si>
 </sst>
 </file>
@@ -803,7 +806,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>44898</v>
+        <v>44897</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -821,7 +824,7 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -835,10 +838,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>44898</v>
+        <v>44897</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -853,7 +856,7 @@
         <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -867,10 +870,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>44898</v>
+        <v>44897</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -885,24 +888,24 @@
         <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0644</v>
+        <v>6.48132</v>
       </c>
       <c r="J14" t="n">
-        <v>7.2356</v>
+        <v>1346.2268</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>44898</v>
+        <v>44897</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -917,240 +920,240 @@
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>6.48132</v>
+        <v>0.572</v>
       </c>
       <c r="J15" t="n">
-        <v>1346.2268</v>
+        <v>110.0576</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>44897</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.72579472</v>
+      </c>
+      <c r="J16" t="n">
+        <v>785.261399472</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>0</v>
+      <c r="A17" s="1" t="n">
+        <v>44897</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" t="s">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.24779952</v>
+      </c>
+      <c r="J17" t="n">
+        <v>71.387399952</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>44901</v>
+        <v>44897</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>11.98536</v>
+        <v>8.65952</v>
       </c>
       <c r="J18" t="n">
-        <v>3007.456</v>
+        <v>1799.4064</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>44901</v>
+        <v>44897</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.10735</v>
+      </c>
+      <c r="J19" t="n">
+        <v>11.7832</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>44898</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" t="s">
         <v>23</v>
       </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1.91928</v>
-      </c>
-      <c r="J19" t="n">
-        <v>551.07</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>44901</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.138</v>
-      </c>
-      <c r="J20" t="n">
-        <v>64.3692</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0644</v>
+      </c>
+      <c r="J22" t="n">
+        <v>7.2356</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
         <v>0</v>
       </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
         <v>2</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D24" t="s">
         <v>3</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E24" t="s">
         <v>4</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F24" t="s">
         <v>5</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G24" t="s">
         <v>6</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H24" t="s">
         <v>7</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I24" t="s">
         <v>8</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J24" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>44901</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3.4820358</v>
-      </c>
-      <c r="J23" t="n">
-        <v>821.545192028</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>44901</v>
-      </c>
-      <c r="B24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="J24" t="n">
-        <v>110.0576</v>
       </c>
     </row>
     <row r="25">
@@ -1158,19 +1161,19 @@
         <v>44901</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G25" t="s">
         <v>23</v>
@@ -1179,10 +1182,10 @@
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>2.72579472</v>
+        <v>11.98536</v>
       </c>
       <c r="J25" t="n">
-        <v>785.261399472</v>
+        <v>3007.456</v>
       </c>
     </row>
     <row r="26">
@@ -1190,19 +1193,19 @@
         <v>44901</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G26" t="s">
         <v>23</v>
@@ -1211,10 +1214,10 @@
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0.24779952</v>
+        <v>1.91928</v>
       </c>
       <c r="J26" t="n">
-        <v>71.387399952</v>
+        <v>551.07</v>
       </c>
     </row>
     <row r="27">
@@ -1222,19 +1225,19 @@
         <v>44901</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G27" t="s">
         <v>23</v>
@@ -1243,138 +1246,106 @@
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>8.65952</v>
+        <v>0.138</v>
       </c>
       <c r="J27" t="n">
-        <v>1799.4064</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+        <v>64.3692</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>44901</v>
       </c>
-      <c r="B28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
         <v>20</v>
       </c>
-      <c r="E28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" t="s">
         <v>23</v>
       </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.10735</v>
-      </c>
-      <c r="J28" t="n">
-        <v>11.7832</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.4820358</v>
+      </c>
+      <c r="J30" t="n">
+        <v>821.545192028</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
         <v>0</v>
       </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
         <v>2</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D32" t="s">
         <v>3</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E32" t="s">
         <v>4</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F32" t="s">
         <v>5</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G32" t="s">
         <v>6</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H32" t="s">
         <v>7</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I32" t="s">
         <v>8</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J32" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>44902</v>
-      </c>
-      <c r="B31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.1621008</v>
-      </c>
-      <c r="J31" t="n">
-        <v>26.25864</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>44902</v>
-      </c>
-      <c r="B32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1.62515534</v>
-      </c>
-      <c r="J32" t="n">
-        <v>894.28498812</v>
       </c>
     </row>
     <row r="33">
@@ -1382,19 +1353,19 @@
         <v>44902</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G33" t="s">
         <v>15</v>
@@ -1403,298 +1374,362 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
+        <v>0.1621008</v>
+      </c>
+      <c r="J33" t="n">
+        <v>26.25864</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.62515534</v>
+      </c>
+      <c r="J34" t="n">
+        <v>894.28498812</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>44902</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
         <v>0.3438048</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J35" t="n">
         <v>126.561175584</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="s">
+    <row r="37">
+      <c r="A37" t="s">
         <v>0</v>
       </c>
-      <c r="B35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
         <v>2</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D37" t="s">
         <v>3</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E37" t="s">
         <v>4</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F37" t="s">
         <v>5</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G37" t="s">
         <v>6</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H37" t="s">
         <v>7</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I37" t="s">
         <v>8</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J37" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="38">
+      <c r="A38" s="1" t="n">
         <v>44903</v>
       </c>
-      <c r="B36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" t="s">
         <v>11</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D38" t="s">
         <v>12</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E38" t="s">
         <v>13</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F38" t="s">
         <v>14</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G38" t="s">
         <v>15</v>
       </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
         <v>3.39256236</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J38" t="n">
         <v>1111.012328068</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="39">
+      <c r="A39" s="1" t="n">
         <v>44903</v>
       </c>
-      <c r="B37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
         <v>11</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D39" t="s">
         <v>12</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E39" t="s">
         <v>13</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F39" t="s">
         <v>14</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G39" t="s">
         <v>15</v>
       </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
         <v>0.118968</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J39" t="n">
         <v>50.316092016</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>0</v>
       </c>
-      <c r="B39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
         <v>2</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D41" t="s">
         <v>3</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E41" t="s">
         <v>4</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F41" t="s">
         <v>5</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G41" t="s">
         <v>6</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H41" t="s">
         <v>7</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I41" t="s">
         <v>8</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J41" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>44903</v>
-      </c>
-      <c r="B40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" t="s">
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>44904</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.03072</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4.29504</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44904</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.03072</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4.29504</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>44904</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" t="s">
         <v>27</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D48" t="s">
         <v>20</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E48" t="s">
         <v>28</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F48" t="s">
         <v>29</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G48" t="s">
         <v>23</v>
       </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
         <v>1.4624</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J48" t="n">
         <v>263.356</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I42" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>44904</v>
-      </c>
-      <c r="B43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" t="s">
-        <v>45</v>
-      </c>
-      <c r="F43" t="s">
-        <v>46</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.03072</v>
-      </c>
-      <c r="J43" t="n">
-        <v>4.29504</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" t="s">
-        <v>6</v>
-      </c>
-      <c r="H45" t="s">
-        <v>7</v>
-      </c>
-      <c r="I45" t="s">
-        <v>8</v>
-      </c>
-      <c r="J45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44904</v>
-      </c>
-      <c r="B46" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.03072</v>
-      </c>
-      <c r="J46" t="n">
-        <v>4.29504</v>
       </c>
     </row>
   </sheetData>
